--- a/demolaskut/Excelit/lasku082022.xlsx
+++ b/demolaskut/Excelit/lasku082022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuli\DEV\Robots\InvoiceRobot\demolaskut\Excelit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A2E47D-8F7D-42FA-8B42-892DD7157AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6344E81-636F-402D-8266-C77CAF5FFA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{55018F5B-99E1-4F27-AEAC-F3DD2FCA318F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Demo Invoice Robot lasku</t>
   </si>
@@ -101,9 +101,6 @@
     <t>FI123456789101112</t>
   </si>
   <si>
-    <t xml:space="preserve">Lasku yhteensä: </t>
-  </si>
-  <si>
     <t>Navigointiohjelmiston kuukausimaksu</t>
   </si>
   <si>
@@ -128,7 +125,7 @@
     <t>Simon Navigointi Oy</t>
   </si>
   <si>
-    <t>alv 24%</t>
+    <t xml:space="preserve">Lasku yhteensä (sis alv): </t>
   </si>
 </sst>
 </file>
@@ -514,74 +511,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -593,6 +534,62 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -914,8 +911,8 @@
   </sheetPr>
   <dimension ref="B1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,15 +966,15 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="28">
-        <f>L41</f>
+      <c r="L4" s="28"/>
+      <c r="M4" s="19">
+        <f>J44</f>
         <v>334.8</v>
       </c>
-      <c r="N4" s="55"/>
+      <c r="N4" s="20"/>
       <c r="O4" s="14"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -990,14 +987,14 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="60"/>
-      <c r="M5" s="48">
+      <c r="L5" s="30"/>
+      <c r="M5" s="21">
         <v>44803</v>
       </c>
-      <c r="N5" s="56"/>
+      <c r="N5" s="22"/>
       <c r="O5" s="14"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -1012,14 +1009,14 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="21">
+      <c r="L6" s="32"/>
+      <c r="M6" s="23">
         <v>12</v>
       </c>
-      <c r="N6" s="22"/>
+      <c r="N6" s="24"/>
       <c r="O6" s="14"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -1034,14 +1031,14 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="51" t="s">
+      <c r="K7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="47"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="26"/>
       <c r="O7" s="14"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -1056,14 +1053,14 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="51" t="s">
+      <c r="K8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="52"/>
-      <c r="M8" s="21">
+      <c r="L8" s="32"/>
+      <c r="M8" s="23">
         <v>31082022</v>
       </c>
-      <c r="N8" s="22"/>
+      <c r="N8" s="24"/>
       <c r="O8" s="14"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -1076,14 +1073,14 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="51" t="s">
+      <c r="K9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="52"/>
-      <c r="M9" s="46" t="s">
+      <c r="L9" s="32"/>
+      <c r="M9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="47"/>
+      <c r="N9" s="26"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -1096,14 +1093,14 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="51" t="s">
+      <c r="K10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="52"/>
-      <c r="M10" s="48">
+      <c r="L10" s="32"/>
+      <c r="M10" s="21">
         <v>44834</v>
       </c>
-      <c r="N10" s="22"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="14"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -1116,14 +1113,14 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36" t="s">
+      <c r="L11" s="49"/>
+      <c r="M11" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="37"/>
+      <c r="N11" s="51"/>
       <c r="O11" s="14"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -1145,7 +1142,7 @@
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1178,421 +1175,421 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="24" t="s">
+      <c r="D15" s="39"/>
+      <c r="E15" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24" t="s">
+      <c r="F15" s="40"/>
+      <c r="G15" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24" t="s">
+      <c r="H15" s="40"/>
+      <c r="I15" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24" t="s">
+      <c r="J15" s="40"/>
+      <c r="K15" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24" t="s">
+      <c r="L15" s="40"/>
+      <c r="M15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="55"/>
       <c r="O15" s="14"/>
     </row>
     <row r="16" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
-      <c r="C16" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="45">
+      <c r="C16" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="37">
         <v>6789</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="21">
+      <c r="F16" s="24"/>
+      <c r="G16" s="23">
         <v>1</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="30">
+      <c r="H16" s="24"/>
+      <c r="I16" s="41">
         <v>100</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="32">
+      <c r="J16" s="42"/>
+      <c r="K16" s="53">
         <v>0.24</v>
       </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="28">
+      <c r="L16" s="54"/>
+      <c r="M16" s="19">
         <f>I16*(1+K16)*G16</f>
         <v>124</v>
       </c>
-      <c r="N16" s="29"/>
+      <c r="N16" s="56"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
-      <c r="C17" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="21">
+      <c r="C17" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="23">
         <v>4567</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="21">
+      <c r="F17" s="24"/>
+      <c r="G17" s="23">
         <v>1</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="30">
+      <c r="H17" s="24"/>
+      <c r="I17" s="41">
         <v>50</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="32">
+      <c r="J17" s="42"/>
+      <c r="K17" s="53">
         <v>0.24</v>
       </c>
-      <c r="L17" s="33"/>
-      <c r="M17" s="30">
+      <c r="L17" s="54"/>
+      <c r="M17" s="41">
         <f>I17*(1+K17)*G17</f>
         <v>62</v>
       </c>
-      <c r="N17" s="31"/>
+      <c r="N17" s="57"/>
       <c r="O17" s="14"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="31"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="57"/>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
-      <c r="C19" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="21">
+      <c r="C19" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="23">
         <v>9999</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="21">
+      <c r="F19" s="24"/>
+      <c r="G19" s="23">
         <v>4</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="30">
+      <c r="H19" s="24"/>
+      <c r="I19" s="41">
         <v>30</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="32">
+      <c r="J19" s="42"/>
+      <c r="K19" s="53">
         <v>0.24</v>
       </c>
-      <c r="L19" s="33"/>
-      <c r="M19" s="30">
+      <c r="L19" s="54"/>
+      <c r="M19" s="41">
         <f>I19*(1+K19)*G19</f>
         <v>148.80000000000001</v>
       </c>
-      <c r="N19" s="31"/>
+      <c r="N19" s="57"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="23"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="52"/>
       <c r="O20" s="14"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="23"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="52"/>
       <c r="O21" s="14"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="23"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="52"/>
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="23"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="52"/>
       <c r="O23" s="14"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="23"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="52"/>
       <c r="O24" s="14"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="23"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="52"/>
       <c r="O25" s="14"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="23"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="52"/>
       <c r="O26" s="14"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="23"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="52"/>
       <c r="O27" s="14"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="23"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="52"/>
       <c r="O28" s="14"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="23"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="52"/>
       <c r="O29" s="14"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="23"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="52"/>
       <c r="O30" s="14"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="23"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="52"/>
       <c r="O31" s="14"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="23"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="52"/>
       <c r="O32" s="14"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="23"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="52"/>
       <c r="O33" s="14"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="23"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="52"/>
       <c r="O34" s="14"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="23"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="52"/>
       <c r="O35" s="14"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="23"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="52"/>
       <c r="O36" s="14"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="34"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="58"/>
       <c r="O37" s="14"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -1613,7 +1610,9 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
-      <c r="C39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -1627,9 +1626,11 @@
       <c r="N39" s="5"/>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
-      <c r="C40" s="5"/>
+      <c r="C40" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -1643,27 +1644,17 @@
       <c r="N40" s="5"/>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
-      <c r="C41" s="5"/>
+      <c r="C41" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="5"/>
-      <c r="L41" s="26">
-        <f>SUM(M16:N37)</f>
-        <v>334.8</v>
-      </c>
-      <c r="M41" s="27"/>
-      <c r="N41" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="O41" s="14"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
@@ -1682,37 +1673,30 @@
       <c r="N42" s="5"/>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13"/>
-      <c r="C43" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+      <c r="J43" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13"/>
-      <c r="C44" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="J44" s="59">
+        <f>SUM(M16:N37)</f>
+        <v>334.8</v>
+      </c>
+      <c r="K44" s="60"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -1720,11 +1704,6 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
-      <c r="C45" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -1754,68 +1733,69 @@
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="I16:J16"/>
@@ -1840,73 +1820,72 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C44" r:id="rId1" xr:uid="{42CD6B68-F9A8-48BB-9A8C-91F8A58AFF03}"/>
-    <hyperlink ref="C45" r:id="rId2" xr:uid="{B3AC6EE5-2640-4354-A5FE-21CA49015D0A}"/>
+    <hyperlink ref="C40" r:id="rId1" xr:uid="{42CD6B68-F9A8-48BB-9A8C-91F8A58AFF03}"/>
+    <hyperlink ref="C41" r:id="rId2" xr:uid="{B3AC6EE5-2640-4354-A5FE-21CA49015D0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="portrait" r:id="rId3"/>
